--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_de_Villeneuve/Hôpital_de_Villeneuve.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_de_Villeneuve/Hôpital_de_Villeneuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Villeneuve</t>
+          <t>Hôpital_de_Villeneuve</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de Villeneuve est un hôpital ancien. Il est situé à Villeneuve, dans le canton de Vaud.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Villeneuve</t>
+          <t>Hôpital_de_Villeneuve</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,49 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1236, Aymon de Savoie († 1238 ou 1242) fonde la Maison-Dieu à Villeneuve pour les pauvres, les pèlerins et les malades et dote l'institution de biens immobiliers, dont le moulin de Saint-Maurice, les dîmes de Bagnes, Fully, Aigle et Yvorne, l'alpe Ayerne, les forêts de Chamblon, des vignes et des rentes[1]. L'hôpital était une branche de l'abbaye de St-Maurice (chanoines augustins). En 1536, Berne introduit la Réforme dans le pays de Vaud et sécularise l'hôpital. Les chanoines augustins sont remplacés par l'hôpitalier de Villeneuve. Alors qu'au XVIe siècle, le Noble Ferdinand Bouvier (1554-1637), un homme de Villeneuve, était à la tête de l'institution, à partir de 1611, seuls des bourgeois de la ville de Berne sont connus pour avoir occupé cette fonction. Le 8 juillet 1735, les autorités bernoises décident que l'hôpitalier "ne peut être praetendeirt et servi que par des malheureux". Comme la Schaffnerei à Hettiswil, l'hôpital de Villeneuve était dirigé par un bourgeois de la ville de Berne, mais la fonction n'était pas limitée dans le temps, ce qui laisse penser que le poste n'était pas particulièrement convoité. La fonction n'avait donc pas le statut de bailliage.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1236, Aymon de Savoie († 1238 ou 1242) fonde la Maison-Dieu à Villeneuve pour les pauvres, les pèlerins et les malades et dote l'institution de biens immobiliers, dont le moulin de Saint-Maurice, les dîmes de Bagnes, Fully, Aigle et Yvorne, l'alpe Ayerne, les forêts de Chamblon, des vignes et des rentes. L'hôpital était une branche de l'abbaye de St-Maurice (chanoines augustins). En 1536, Berne introduit la Réforme dans le pays de Vaud et sécularise l'hôpital. Les chanoines augustins sont remplacés par l'hôpitalier de Villeneuve. Alors qu'au XVIe siècle, le Noble Ferdinand Bouvier (1554-1637), un homme de Villeneuve, était à la tête de l'institution, à partir de 1611, seuls des bourgeois de la ville de Berne sont connus pour avoir occupé cette fonction. Le 8 juillet 1735, les autorités bernoises décident que l'hôpitalier "ne peut être praetendeirt et servi que par des malheureux". Comme la Schaffnerei à Hettiswil, l'hôpital de Villeneuve était dirigé par un bourgeois de la ville de Berne, mais la fonction n'était pas limitée dans le temps, ce qui laisse penser que le poste n'était pas particulièrement convoité. La fonction n'avait donc pas le statut de bailliage.
 L'ancienne chapelle de l'hôpital a servi comme grenier au XVIIIe siècle Avec la chute de la ville et république de Berne, l'hôpital est passé dans le nouveau canton de Vaud, qui l'a abandonné le 1er novembre 1806. En 1826, le canton vend le bâtiment de l'hôpital à la municipalité de Villeneuve, tandis que les vignobles restent la propriété de l'État. Le produit de la vente devait servir à fonder l'hôpital cantonal de Lausanne. La municipalité utilise l'ancienne chapelle de l'hôpital comme école et la fait transformer en hôtel de ville néo-gothique entre 1874 et 1876 par les architectes Henri et Charles Chaudet. Les vignobles sont gérés par le canton de Vaud en tant que Domaines des Hospices Cantonaux d'Aigle et de Villeneuve.
-Liste des tenanciers
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Villeneuve</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Villeneuve</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des tenanciers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Girard Bernardi, 1375–1376
 Jean Gerbais, bis 1375, 1393
 Jean Garreti, 1376–1378
@@ -537,10 +587,10 @@
 Simon Roy, 1617–1623
 Jakob von Werdt, 1623–1624
 Abraham Schnyder, 1624–1628
-Abraham Sybold[2], 1628–1637
+Abraham Sybold, 1628–1637
 Georges de Rambeval, 1637–1652
 Sebastien de Luternau, 1652
-Isaak Im Hof[3], 1688
+Isaak Im Hof, 1688
 Jean Rodolphe Reinhard de Luternau, 1730 à environ 1740
 Jean Rodolphe Hubert de Luternau, 1765–1789
 Jean David de Watteville, 1790
